--- a/test_youtube/Testingset/rasmasknet/face9_4.xlsx
+++ b/test_youtube/Testingset/rasmasknet/face9_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\New folder\9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\Testingset\rasmasknet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85A60F-419A-4796-89C6-A479FC292E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC046BC-2AF8-45FA-BBA0-E9CC08E32C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="face" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
